--- a/biology/Zoologie/Jappy_et_Pappy_Toutou/Jappy_et_Pappy_Toutou.xlsx
+++ b/biology/Zoologie/Jappy_et_Pappy_Toutou/Jappy_et_Pappy_Toutou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jappy et Pappy Toutou (Auggi Doggy and Doggy Daddy) est une série télévisée d'animation américaine en 45 épisodes de 7 minutes produite par les studios Hanna-Barbera et diffusée en syndication entre le 19 septembre 1959 et le 20 octobre 1962.
 En France, la série a été diffusée sur ORTF en 1966 dans l'émission La Séquence du jeune spectateur puis sur Boomerang (2005-2008).
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mésaventures d'un père chien et de son jeune fils, de race teckel. Pappy Toutou fait de son mieux pour élever son turbulent fils Jappy. Jappy aime son père et l'appelle souvent « cher vieux papa ». Leur admiration est mutuelle mais le papa doit parfois réprimander gentiment son petit par des « Jappy, mon fils, mon fils », quand il déçoit son père. En revanche, quand Jappy dit ou fait quelque chose qui inspire de la fierté à Pappy Toutou, celui-ci se tourne vers le public et dit avec un sourire : « C'est mon garçon qui a dit ça ! ».
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,12 +587,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Daws Butler : Auggi Doggy (Jappy en VF)
-Doug Young : Doggy Daddy (Pappy Toutou en VF)
-Voix française
-Guy Piérauld : Jappy
-Roger Carel : Pappy Toutou</t>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Daws Butler : Auggi Doggy (Jappy en VF)
+Doug Young : Doggy Daddy (Pappy Toutou en VF)</t>
         </is>
       </c>
     </row>
@@ -601,12 +619,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix française</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Guy Piérauld : Jappy
+Roger Carel : Pappy Toutou</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jappy_et_Pappy_Toutou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jappy_et_Pappy_Toutou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (1959-1960)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première saison (1959-1960)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 À la recherche d'un vrai (Fox Hound Hounded Fox)
 Chien de garde (Watchdog Augie)
 L'Ami (Skunk You Very Much)
@@ -632,7 +693,43 @@
 Alcibiade (Snaggleppuss)
 Un chat à la TV (Hum Sweet Hum)
 Ce oiseau fait des problèmes (Peck O' Trouble)
-Deuxième saison (1960-1962)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jappy_et_Pappy_Toutou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jappy_et_Pappy_Toutou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1960-1962)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Histoires et Plumes (Fuss &amp; Feathers)
 La Visite de Yakky Doodle (Yuck Yuck Duck)
 Jour de souris (It's A Mice Day)
@@ -646,7 +743,43 @@
 Père Cheval (Horse Fathers)
 Compagnon muet (Playmute Pup)
 La Petite Merveille (Little Wonder)
-Troisième saison (1962)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jappy_et_Pappy_Toutou</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jappy_et_Pappy_Toutou</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Troisième saison (1962)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Un trésor amusant (Treasure Jest)
 Le Gorille (From Ape To Z)
 Voyage dans l'imagination (Growing, Growing Gone)
